--- a/airfoil_data/Eppler E63/blade_geo/nblades=6/thickness=0.025/hub_diameter=0.085/target_CFM=250/airfoil_data.xlsx
+++ b/airfoil_data/Eppler E63/blade_geo/nblades=6/thickness=0.025/hub_diameter=0.085/target_CFM=250/airfoil_data.xlsx
@@ -480,13 +480,13 @@
         <v>0.0425</v>
       </c>
       <c r="B2" t="n">
-        <v>38.54305995452287</v>
+        <v>32.55120885362012</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04558513607404703</v>
+        <v>0.03134615265999977</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04727323767204816</v>
+        <v>0.03165752309384982</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0.0425</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03537086701626727</v>
+        <v>0.026336189991991</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02356165882355351</v>
+        <v>0.0333564850772043</v>
       </c>
     </row>
     <row r="3">
@@ -506,13 +506,13 @@
         <v>0.04552631578947369</v>
       </c>
       <c r="B3" t="n">
-        <v>37.17608176635076</v>
+        <v>31.44609870366626</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04614845085742431</v>
+        <v>0.03273404759573056</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04752400239494913</v>
+        <v>0.0329916666642452</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -521,10 +521,10 @@
         <v>0.04552631578947369</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03639068594561304</v>
+        <v>0.02770001605632556</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02735623157108161</v>
+        <v>0.03612969055835086</v>
       </c>
     </row>
     <row r="4">
@@ -532,13 +532,13 @@
         <v>0.04855263157894738</v>
       </c>
       <c r="B4" t="n">
-        <v>35.85242312723163</v>
+        <v>30.36992939415965</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04670500884400276</v>
+        <v>0.03422635425018777</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04782002775461423</v>
+        <v>0.03443461983779045</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -547,10 +547,10 @@
         <v>0.04855263157894738</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03735259967379558</v>
+        <v>0.0291509474437781</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03101840309961434</v>
+        <v>0.03882757134268231</v>
       </c>
     </row>
     <row r="5">
@@ -558,13 +558,13 @@
         <v>0.05157894736842106</v>
       </c>
       <c r="B5" t="n">
-        <v>34.57717160183907</v>
+        <v>29.34408150830151</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04726085311572603</v>
+        <v>0.03580984752144308</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04815817659142654</v>
+        <v>0.03597212130298566</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -573,10 +573,10 @@
         <v>0.05157894736842106</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03827589255709306</v>
+        <v>0.03067747001613757</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0345737452497154</v>
+        <v>0.04146420920557065</v>
       </c>
     </row>
     <row r="6">
@@ -584,13 +584,13 @@
         <v>0.05460526315789474</v>
       </c>
       <c r="B6" t="n">
-        <v>33.35541475484667</v>
+        <v>28.38993562929306</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04781895605498388</v>
+        <v>0.0374630018626493</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04853395314434281</v>
+        <v>0.0375822487347633</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -599,10 +599,10 @@
         <v>0.05460526315789474</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03917192920022446</v>
+        <v>0.03226026528792875</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03804332697432677</v>
+        <v>0.04405689557941408</v>
       </c>
     </row>
     <row r="7">
@@ -610,13 +610,13 @@
         <v>0.05763157894736842</v>
       </c>
       <c r="B7" t="n">
-        <v>32.192240150928</v>
+        <v>27.52887234033551</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04837927214387424</v>
+        <v>0.03915449073634472</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04894129989691622</v>
+        <v>0.03923391913373186</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -625,10 +625,10 @@
         <v>0.05763157894736842</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04004621268359826</v>
+        <v>0.03387126747748929</v>
       </c>
       <c r="H7" t="n">
-        <v>0.04144514135175284</v>
+        <v>0.0466276327024559</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         <v>0.06065789473684211</v>
       </c>
       <c r="B8" t="n">
-        <v>31.09273535475665</v>
+        <v>26.78227222463008</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04893879229474919</v>
+        <v>0.04084221550887734</v>
       </c>
       <c r="D8" t="n">
-        <v>0.04937240707385109</v>
+        <v>0.04088591332530263</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -651,10 +651,10 @@
         <v>0.06065789473684211</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04089961054457628</v>
+        <v>0.03547304413129763</v>
       </c>
       <c r="H8" t="n">
-        <v>0.04479511191199104</v>
+        <v>0.04920409875167747</v>
       </c>
     </row>
     <row r="9">
@@ -662,13 +662,13 @@
         <v>0.06368421052631579</v>
       </c>
       <c r="B9" t="n">
-        <v>30.06198793100622</v>
+        <v>26.17151586537799</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04949160347116643</v>
+        <v>0.04247339906190534</v>
       </c>
       <c r="D9" t="n">
-        <v>0.04981755526496751</v>
+        <v>0.0424869092270123</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -677,10 +677,10 @@
         <v>0.06368421052631579</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04172910760758027</v>
+        <v>0.03701888933178875</v>
       </c>
       <c r="H9" t="n">
-        <v>0.04810779821021845</v>
+        <v>0.0518196922318233</v>
       </c>
     </row>
     <row r="10">
@@ -688,13 +688,13 @@
         <v>0.06671052631578947</v>
       </c>
       <c r="B10" t="n">
-        <v>29.10508544435028</v>
+        <v>25.71798384578045</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05002897802198786</v>
+        <v>0.04398632860814766</v>
       </c>
       <c r="D10" t="n">
-        <v>0.05026501803604515</v>
+        <v>0.04397705570249089</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -703,10 +703,10 @@
         <v>0.06671052631578947</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04252829940377674</v>
+        <v>0.03845403777769162</v>
       </c>
       <c r="H10" t="n">
-        <v>0.05139686830101969</v>
+        <v>0.05451221239246767</v>
       </c>
     </row>
     <row r="11">
@@ -714,13 +714,13 @@
         <v>0.06973684210526315</v>
       </c>
       <c r="B11" t="n">
-        <v>28.22711545946242</v>
+        <v>25.44305674903868</v>
       </c>
       <c r="C11" t="n">
-        <v>0.05053952911762941</v>
+        <v>0.04531420457678804</v>
       </c>
       <c r="D11" t="n">
-        <v>0.05070105734432923</v>
+        <v>0.04529150969377534</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -729,10 +729,10 @@
         <v>0.06973684210526315</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04328776592035795</v>
+        <v>0.03971834450773912</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05467537350982342</v>
+        <v>0.05732085359080893</v>
       </c>
     </row>
     <row r="12">
@@ -740,13 +740,13 @@
         <v>0.07276315789473685</v>
       </c>
       <c r="B12" t="n">
-        <v>27.42511023028304</v>
+        <v>25.34218031457488</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05101827336342231</v>
+        <v>0.0464335542310126</v>
       </c>
       <c r="D12" t="n">
-        <v>0.05111832281240902</v>
+        <v>0.04640696265192399</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>0.07276315789473685</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04400359165883493</v>
+        <v>0.04078865274913682</v>
       </c>
       <c r="H12" t="n">
-        <v>0.05794964251776639</v>
+        <v>0.06025581261359554</v>
       </c>
     </row>
     <row r="13">
@@ -766,13 +766,13 @@
         <v>0.07578947368421053</v>
       </c>
       <c r="B13" t="n">
-        <v>26.65582545708668</v>
+        <v>25.27320831662659</v>
       </c>
       <c r="C13" t="n">
-        <v>0.05150662471436202</v>
+        <v>0.04755926517897689</v>
       </c>
       <c r="D13" t="n">
-        <v>0.05155371793971543</v>
+        <v>0.04753031993770328</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -781,10 +781,10 @@
         <v>0.07578947368421053</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04471500692706027</v>
+        <v>0.04185594098563961</v>
       </c>
       <c r="H13" t="n">
-        <v>0.06119323881641331</v>
+        <v>0.06318326143478425</v>
       </c>
     </row>
     <row r="14">
@@ -792,13 +792,13 @@
         <v>0.07881578947368421</v>
       </c>
       <c r="B14" t="n">
-        <v>25.91629339381375</v>
+        <v>25.21135225409821</v>
       </c>
       <c r="C14" t="n">
-        <v>0.05200711519335957</v>
+        <v>0.04872831788328841</v>
       </c>
       <c r="D14" t="n">
-        <v>0.05200830687625681</v>
+        <v>0.04869716681093216</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -807,10 +807,10 @@
         <v>0.07881578947368421</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04542552758840716</v>
+        <v>0.04295435848564884</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0644084630594068</v>
+        <v>0.06608215914637232</v>
       </c>
     </row>
     <row r="15">
@@ -818,13 +818,13 @@
         <v>0.0818421052631579</v>
       </c>
       <c r="B15" t="n">
-        <v>25.21160160513783</v>
+        <v>25.15687872008541</v>
       </c>
       <c r="C15" t="n">
-        <v>0.05251217224336765</v>
+        <v>0.04993748162213539</v>
       </c>
       <c r="D15" t="n">
-        <v>0.05247379675689907</v>
+        <v>0.04990429348171505</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0.0818421052631579</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04612901748965791</v>
+        <v>0.04408196243438509</v>
       </c>
       <c r="H15" t="n">
-        <v>0.06760357933826176</v>
+        <v>0.06895586111302852</v>
       </c>
     </row>
     <row r="16">
@@ -844,13 +844,13 @@
         <v>0.08486842105263159</v>
       </c>
       <c r="B16" t="n">
-        <v>24.54683765573249</v>
+        <v>25.11005430768388</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05301234893097538</v>
+        <v>0.05118340223485981</v>
       </c>
       <c r="D16" t="n">
-        <v>0.05294020025959807</v>
+        <v>0.05114837045581223</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0.08486842105263159</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04681734737242045</v>
+        <v>0.04523650618624313</v>
       </c>
       <c r="H16" t="n">
-        <v>0.07078689763633435</v>
+        <v>0.07180743276311129</v>
       </c>
     </row>
     <row r="17">
@@ -870,13 +870,13 @@
         <v>0.08789473684210528</v>
       </c>
       <c r="B17" t="n">
-        <v>23.92708911027134</v>
+        <v>25.07114560998929</v>
       </c>
       <c r="C17" t="n">
-        <v>0.05349630299538984</v>
+        <v>0.05246260632715694</v>
       </c>
       <c r="D17" t="n">
-        <v>0.05339578478993057</v>
+        <v>0.05242595302535229</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -885,10 +885,10 @@
         <v>0.08789473684210528</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04748041811944918</v>
+        <v>0.0464154853617944</v>
       </c>
       <c r="H17" t="n">
-        <v>0.073966848383213</v>
+        <v>0.07463971786637452</v>
       </c>
     </row>
     <row r="18">
@@ -896,13 +896,13 @@
         <v>0.09092105263157896</v>
       </c>
       <c r="B18" t="n">
-        <v>23.35744353342795</v>
+        <v>25.04041922009732</v>
       </c>
       <c r="C18" t="n">
-        <v>0.05395086255463536</v>
+        <v>0.05377150702611774</v>
       </c>
       <c r="D18" t="n">
-        <v>0.05382710857451893</v>
+        <v>0.05373348705009601</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -911,10 +911,10 @@
         <v>0.09092105263157896</v>
       </c>
       <c r="G18" t="n">
-        <v>0.04810623558320808</v>
+        <v>0.04761617506444814</v>
       </c>
       <c r="H18" t="n">
-        <v>0.07715197929831247</v>
+        <v>0.0774553915739</v>
       </c>
     </row>
     <row r="19">
@@ -922,13 +922,13 @@
         <v>0.09394736842105264</v>
       </c>
       <c r="B19" t="n">
-        <v>22.84298848987592</v>
+        <v>25.01814173110364</v>
       </c>
       <c r="C19" t="n">
-        <v>0.05436120912934377</v>
+        <v>0.05510641123600406</v>
       </c>
       <c r="D19" t="n">
-        <v>0.05421917282492913</v>
+        <v>0.05506731605390543</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -937,10 +937,10 @@
         <v>0.09394736842105264</v>
       </c>
       <c r="G19" t="n">
-        <v>0.04868106972869628</v>
+        <v>0.04883566084556435</v>
       </c>
       <c r="H19" t="n">
-        <v>0.08035086485726715</v>
+        <v>0.08025700133332925</v>
       </c>
     </row>
     <row r="20">
@@ -948,13 +948,13 @@
         <v>0.09697368421052632</v>
       </c>
       <c r="B20" t="n">
-        <v>22.38881154428882</v>
+        <v>25.00457973610393</v>
       </c>
       <c r="C20" t="n">
-        <v>0.05471120697778675</v>
+        <v>0.05646352836178318</v>
       </c>
       <c r="D20" t="n">
-        <v>0.05455571802625767</v>
+        <v>0.05642368964526046</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -963,10 +963,10 @@
         <v>0.09697368421052632</v>
       </c>
       <c r="G20" t="n">
-        <v>0.04918972941422838</v>
+        <v>0.0500708652768267</v>
       </c>
       <c r="H20" t="n">
-        <v>0.08357192081984162</v>
+        <v>0.08304699801794616</v>
       </c>
     </row>
     <row r="21">
@@ -974,13 +974,13 @@
         <v>0.1</v>
       </c>
       <c r="B21" t="n">
-        <v>22.00000026134023</v>
+        <v>24.99999982819389</v>
       </c>
       <c r="C21" t="n">
-        <v>0.05498390081389703</v>
+        <v>0.05783898046800158</v>
       </c>
       <c r="D21" t="n">
-        <v>0.05481968634328808</v>
+        <v>0.05779877325329778</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -989,10 +989,10 @@
         <v>0.1</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04961597923918078</v>
+        <v>0.05131857145420095</v>
       </c>
       <c r="H21" t="n">
-        <v>0.08682312252008208</v>
+        <v>0.08582775905206935</v>
       </c>
     </row>
   </sheetData>

--- a/airfoil_data/Eppler E63/blade_geo/nblades=6/thickness=0.025/hub_diameter=0.085/target_CFM=250/airfoil_data.xlsx
+++ b/airfoil_data/Eppler E63/blade_geo/nblades=6/thickness=0.025/hub_diameter=0.085/target_CFM=250/airfoil_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,25 +451,20 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>linear chord [m]</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
           <t>LE x [m]</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>LE y [m]</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>TE x [m]</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>TE y [m]</t>
         </is>
@@ -486,18 +481,15 @@
         <v>0.03134615265999977</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03165752309384982</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.0425</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0425</v>
+        <v>0.026336189991991</v>
       </c>
       <c r="G2" t="n">
-        <v>0.026336189991991</v>
-      </c>
-      <c r="H2" t="n">
         <v>0.0333564850772043</v>
       </c>
     </row>
@@ -512,18 +504,15 @@
         <v>0.03273404759573056</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0329916666642452</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.04552631578947369</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04552631578947369</v>
+        <v>0.02770001605632556</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02770001605632556</v>
-      </c>
-      <c r="H3" t="n">
         <v>0.03612969055835086</v>
       </c>
     </row>
@@ -538,18 +527,15 @@
         <v>0.03422635425018777</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03443461983779045</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.04855263157894738</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04855263157894738</v>
+        <v>0.0291509474437781</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0291509474437781</v>
-      </c>
-      <c r="H4" t="n">
         <v>0.03882757134268231</v>
       </c>
     </row>
@@ -564,18 +550,15 @@
         <v>0.03580984752144308</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03597212130298566</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.05157894736842106</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05157894736842106</v>
+        <v>0.03067747001613757</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03067747001613757</v>
-      </c>
-      <c r="H5" t="n">
         <v>0.04146420920557065</v>
       </c>
     </row>
@@ -590,18 +573,15 @@
         <v>0.0374630018626493</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0375822487347633</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.05460526315789474</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05460526315789474</v>
+        <v>0.03226026528792875</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03226026528792875</v>
-      </c>
-      <c r="H6" t="n">
         <v>0.04405689557941408</v>
       </c>
     </row>
@@ -616,18 +596,15 @@
         <v>0.03915449073634472</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03923391913373186</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.05763157894736842</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05763157894736842</v>
+        <v>0.03387126747748929</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03387126747748929</v>
-      </c>
-      <c r="H7" t="n">
         <v>0.0466276327024559</v>
       </c>
     </row>
@@ -642,18 +619,15 @@
         <v>0.04084221550887734</v>
       </c>
       <c r="D8" t="n">
-        <v>0.04088591332530263</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.06065789473684211</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06065789473684211</v>
+        <v>0.03547304413129763</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03547304413129763</v>
-      </c>
-      <c r="H8" t="n">
         <v>0.04920409875167747</v>
       </c>
     </row>
@@ -668,18 +642,15 @@
         <v>0.04247339906190534</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0424869092270123</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.06368421052631579</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06368421052631579</v>
+        <v>0.03701888933178875</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03701888933178875</v>
-      </c>
-      <c r="H9" t="n">
         <v>0.0518196922318233</v>
       </c>
     </row>
@@ -694,18 +665,15 @@
         <v>0.04398632860814766</v>
       </c>
       <c r="D10" t="n">
-        <v>0.04397705570249089</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.06671052631578947</v>
       </c>
       <c r="F10" t="n">
-        <v>0.06671052631578947</v>
+        <v>0.03845403777769162</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03845403777769162</v>
-      </c>
-      <c r="H10" t="n">
         <v>0.05451221239246767</v>
       </c>
     </row>
@@ -720,18 +688,15 @@
         <v>0.04531420457678804</v>
       </c>
       <c r="D11" t="n">
-        <v>0.04529150969377534</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.06973684210526315</v>
       </c>
       <c r="F11" t="n">
-        <v>0.06973684210526315</v>
+        <v>0.03971834450773912</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03971834450773912</v>
-      </c>
-      <c r="H11" t="n">
         <v>0.05732085359080893</v>
       </c>
     </row>
@@ -746,18 +711,15 @@
         <v>0.0464335542310126</v>
       </c>
       <c r="D12" t="n">
-        <v>0.04640696265192399</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.07276315789473685</v>
       </c>
       <c r="F12" t="n">
-        <v>0.07276315789473685</v>
+        <v>0.04078865274913682</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04078865274913682</v>
-      </c>
-      <c r="H12" t="n">
         <v>0.06025581261359554</v>
       </c>
     </row>
@@ -772,18 +734,15 @@
         <v>0.04755926517897689</v>
       </c>
       <c r="D13" t="n">
-        <v>0.04753031993770328</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.07578947368421053</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07578947368421053</v>
+        <v>0.04185594098563961</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04185594098563961</v>
-      </c>
-      <c r="H13" t="n">
         <v>0.06318326143478425</v>
       </c>
     </row>
@@ -798,18 +757,15 @@
         <v>0.04872831788328841</v>
       </c>
       <c r="D14" t="n">
-        <v>0.04869716681093216</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.07881578947368421</v>
       </c>
       <c r="F14" t="n">
-        <v>0.07881578947368421</v>
+        <v>0.04295435848564884</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04295435848564884</v>
-      </c>
-      <c r="H14" t="n">
         <v>0.06608215914637232</v>
       </c>
     </row>
@@ -824,18 +780,15 @@
         <v>0.04993748162213539</v>
       </c>
       <c r="D15" t="n">
-        <v>0.04990429348171505</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.0818421052631579</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0818421052631579</v>
+        <v>0.04408196243438509</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04408196243438509</v>
-      </c>
-      <c r="H15" t="n">
         <v>0.06895586111302852</v>
       </c>
     </row>
@@ -850,18 +803,15 @@
         <v>0.05118340223485981</v>
       </c>
       <c r="D16" t="n">
-        <v>0.05114837045581223</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.08486842105263159</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08486842105263159</v>
+        <v>0.04523650618624313</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04523650618624313</v>
-      </c>
-      <c r="H16" t="n">
         <v>0.07180743276311129</v>
       </c>
     </row>
@@ -876,18 +826,15 @@
         <v>0.05246260632715694</v>
       </c>
       <c r="D17" t="n">
-        <v>0.05242595302535229</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.08789473684210528</v>
       </c>
       <c r="F17" t="n">
-        <v>0.08789473684210528</v>
+        <v>0.0464154853617944</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0464154853617944</v>
-      </c>
-      <c r="H17" t="n">
         <v>0.07463971786637452</v>
       </c>
     </row>
@@ -902,18 +849,15 @@
         <v>0.05377150702611774</v>
       </c>
       <c r="D18" t="n">
-        <v>0.05373348705009601</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.09092105263157896</v>
       </c>
       <c r="F18" t="n">
-        <v>0.09092105263157896</v>
+        <v>0.04761617506444814</v>
       </c>
       <c r="G18" t="n">
-        <v>0.04761617506444814</v>
-      </c>
-      <c r="H18" t="n">
         <v>0.0774553915739</v>
       </c>
     </row>
@@ -928,18 +872,15 @@
         <v>0.05510641123600406</v>
       </c>
       <c r="D19" t="n">
-        <v>0.05506731605390543</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.09394736842105264</v>
       </c>
       <c r="F19" t="n">
-        <v>0.09394736842105264</v>
+        <v>0.04883566084556435</v>
       </c>
       <c r="G19" t="n">
-        <v>0.04883566084556435</v>
-      </c>
-      <c r="H19" t="n">
         <v>0.08025700133332925</v>
       </c>
     </row>
@@ -954,18 +895,15 @@
         <v>0.05646352836178318</v>
       </c>
       <c r="D20" t="n">
-        <v>0.05642368964526046</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.09697368421052632</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09697368421052632</v>
+        <v>0.0500708652768267</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0500708652768267</v>
-      </c>
-      <c r="H20" t="n">
         <v>0.08304699801794616</v>
       </c>
     </row>
@@ -980,18 +918,15 @@
         <v>0.05783898046800158</v>
       </c>
       <c r="D21" t="n">
-        <v>0.05779877325329778</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1</v>
+        <v>0.05131857145420095</v>
       </c>
       <c r="G21" t="n">
-        <v>0.05131857145420095</v>
-      </c>
-      <c r="H21" t="n">
         <v>0.08582775905206935</v>
       </c>
     </row>
